--- a/biology/Histoire de la zoologie et de la botanique/Philip_Lutley_Sclater/Philip_Lutley_Sclater.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Philip_Lutley_Sclater/Philip_Lutley_Sclater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philip Lutley Sclater, né le 4 novembre 1829 à Tangier Park dans le Hampshire et mort le 27 juin 1913, est un juriste et un zoologiste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est le deuxième fils de William Lutley Sclater et d’Anne Maria Bowyer, famille d’une petite noblesse, et le frère de George Sclater-Booth (1er baron Basing), homme politique. Il fréquente le Winchester College à Winchester et le Christ Church College à Oxford, où il obtient son Bachelor of Arts en 1859 et étudie l'ornithologie auprès d'Hugh Edwin Strickland (1811-1853). En 1851, il entame des études de droit et est bientôt admis au barreau. Passionné par l’histoire naturelle, il consacre ses loisirs à l’étude des oiseaux et fréquente notamment Charles-Lucien Bonaparte (1803-1857), John Cassin (1813-1869), Joseph Leidy (1823-1891) et John Lawrence LeConte (1825-1883) lors de ses voyages.
 En 1858, Sclater publie un article dans les Proceedings of the Linnean Society, “On the General Distribution of Members of the Class Aves”, où il définit six régions zoologiques qu'il nomme : région Paléarctique, éthiopienne, indienne, australasienne, néarctique et Néotropicale. Ces régions, ou écozones, sont bientôt adoptées pour les autres animaux et sont encore en usage aujourd'hui.
@@ -551,7 +565,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tyranneau de Sclater (Phyllomyias sclateri), par Hans von Berlepsch (1901).
 Grallaire à front ocre (1858)</t>
@@ -582,7 +598,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres) : 400 p.  (ISBN 0-300-10359-X)
 Article de Oliver L. Austrin Jr : 257-258 dans Charles Coulston Gillispie (dir.) (1975). Dictionary of Scientifc Biography, volume XII : Ibn Rushd – Jean-Servais Stas, Charles Scribner’s (New York) : xii + 620 p.  (ISBN 0-684-12924-8)
